--- a/biology/Botanique/Radula_visianica/Radula_visianica.xlsx
+++ b/biology/Botanique/Radula_visianica/Radula_visianica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Radula visianica est une espèce de plante du genre Radula de la famille des Radulaceae, aujourd'hui éteinte. Elle était endémique de l'Italie.
 L'espèce était connue de deux localités et non revue depuis 1938.
